--- a/data/trans_orig/APOYO_SOCIAL_DUKE_CONT-Edad-trans_orig.xlsx
+++ b/data/trans_orig/APOYO_SOCIAL_DUKE_CONT-Edad-trans_orig.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Apoyo social global - escala</t>
+          <t>Apoyo social global - escala (tasa de respuesta: 97,84%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/APOYO_SOCIAL_DUKE_CONT-Edad-trans_orig.xlsx
+++ b/data/trans_orig/APOYO_SOCIAL_DUKE_CONT-Edad-trans_orig.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>49,07</t>
+          <t>48,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>47,59</t>
+          <t>47,31</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>48,36</t>
+          <t>47,95</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>47,85; 50,16</t>
+          <t>46,97; 49,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>50,3; 52,49</t>
+          <t>50,39; 52,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>45,94; 48,85</t>
+          <t>45,4; 48,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>47,28; 50,67</t>
+          <t>47,32; 50,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>47,42; 49,2</t>
+          <t>46,68; 49,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49,47; 51,49</t>
+          <t>49,51; 51,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>48,63</t>
+          <t>48,86</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>48,2</t>
+          <t>47,81</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>48,4</t>
+          <t>48,34</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -795,12 +795,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>47,3; 49,77</t>
+          <t>47,18; 50,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,42; 50,55</t>
+          <t>48,51; 50,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>46,8; 49,32</t>
+          <t>46,23; 49,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>49,26; 52,92</t>
+          <t>49,32; 52,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>47,49; 49,26</t>
+          <t>47,26; 49,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>49,49; 52,06</t>
+          <t>49,4; 51,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>46,24</t>
+          <t>46,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>45,98</t>
+          <t>46,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>46,11</t>
+          <t>46,19</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -905,12 +905,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>45,13; 47,31</t>
+          <t>45,04; 47,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>47,6; 49,41</t>
+          <t>47,63; 49,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>44,69; 47,05</t>
+          <t>44,92; 47,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>48,2; 49,45</t>
+          <t>48,18; 49,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,12 +935,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>45,25; 46,89</t>
+          <t>45,39; 46,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>48,04; 49,21</t>
+          <t>48,12; 49,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>45,71</t>
+          <t>45,6</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>45,86</t>
+          <t>46,16</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>45,79</t>
+          <t>45,88</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>44,7; 46,62</t>
+          <t>44,59; 46,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>47,68; 53,46</t>
+          <t>47,74; 53,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>45,06; 46,56</t>
+          <t>45,29; 47,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>47,5; 48,71</t>
+          <t>47,56; 48,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>45,17; 46,39</t>
+          <t>45,24; 46,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,91; 52,21</t>
+          <t>47,88; 52,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>46,42</t>
+          <t>46,11</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>46,34</t>
+          <t>46,2</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>46,38</t>
+          <t>46,16</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1125,12 +1125,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>45,53; 47,25</t>
+          <t>44,99; 47,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>45,56; 47,37</t>
+          <t>45,64; 47,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1140,12 +1140,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>45,63; 46,96</t>
+          <t>45,38; 47,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>45,53; 46,99</t>
+          <t>45,61; 47,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>45,85; 46,91</t>
+          <t>45,52; 46,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>45,81; 46,97</t>
+          <t>45,79; 46,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>47,92</t>
+          <t>47,9</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>47,06</t>
+          <t>47,18</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>47,46</t>
+          <t>47,51</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1235,12 +1235,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>47,0; 48,66</t>
+          <t>46,97; 48,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>45,97; 47,74</t>
+          <t>45,92; 47,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1250,12 +1250,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>46,11; 47,78</t>
+          <t>46,21; 47,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>46,26; 47,81</t>
+          <t>46,29; 47,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>46,81; 48,04</t>
+          <t>46,86; 48,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>46,38; 47,54</t>
+          <t>46,45; 47,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>46,98</t>
+          <t>47,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>46,31</t>
+          <t>46,95</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>46,57</t>
+          <t>47,07</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>45,97; 47,86</t>
+          <t>46,12; 48,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>43,6; 46,09</t>
+          <t>43,53; 46,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1360,12 +1360,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>45,46; 47,12</t>
+          <t>45,99; 47,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>42,86; 44,94</t>
+          <t>42,91; 44,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1375,12 +1375,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>45,91; 47,2</t>
+          <t>46,42; 47,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>43,39; 45,06</t>
+          <t>43,59; 45,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>46,96</t>
+          <t>46,97</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>46,54</t>
+          <t>46,69</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>46,74</t>
+          <t>46,82</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>46,6; 47,36</t>
+          <t>46,52; 47,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>47,96; 50,9</t>
+          <t>47,96; 51,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1470,12 +1470,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>46,21; 46,9</t>
+          <t>46,27; 47,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>47,49; 48,81</t>
+          <t>47,51; 48,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1485,12 +1485,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>46,48; 47,02</t>
+          <t>46,53; 47,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>47,85; 49,6</t>
+          <t>47,87; 49,67</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">

--- a/data/trans_orig/APOYO_SOCIAL_DUKE_CONT-Edad-trans_orig.xlsx
+++ b/data/trans_orig/APOYO_SOCIAL_DUKE_CONT-Edad-trans_orig.xlsx
@@ -562,47 +562,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>51,47</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>48,46</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>48,61</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>51,59</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>48,46</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>48,94</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>49,39</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>47,31</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>49,33</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>49,39</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>50,26</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>48,93</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>47,95</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>50,59</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>48,93</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>50,44; 52,35</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>47,48; 49,47</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>46,97; 49,87</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>50,39; 52,51</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>47,48; 49,47</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>46,99; 50,26</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>48,4; 50,27</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>45,4; 48,94</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>47,32; 50,72</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>48,4; 50,27</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>49,18; 51,01</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>48,24; 49,58</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>46,68; 49,01</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>49,51; 51,38</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>48,24; 49,58</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>48,98</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>48,54</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>48,86</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>49,61</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>48,54</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>49,11</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>49,04</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>47,81</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>50,84</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>49,04</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>49,05</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>48,81</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>48,34</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>50,32</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>48,81</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>47,76; 50,06</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>47,38; 49,51</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>47,18; 50,12</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>48,51; 50,51</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>47,38; 49,51</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>48,18; 49,98</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>48,19; 49,74</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>46,23; 49,06</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>49,32; 52,93</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>48,19; 49,74</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>48,29; 49,78</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>48,19; 49,37</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>47,26; 49,3</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>49,4; 51,96</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>48,19; 49,37</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>48,22</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>48,54</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>46,37</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>48,52</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>48,54</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>48,66</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>49,07</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>46,0</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>48,83</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>49,07</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>48,44</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>48,8</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>46,19</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>48,68</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>48,8</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>47,38; 49,06</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>47,8; 49,25</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>45,04; 47,28</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>47,63; 49,35</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>47,8; 49,25</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>48,03; 49,24</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>48,29; 49,71</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>44,92; 47,0</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>48,18; 49,43</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>48,29; 49,71</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>47,89; 48,98</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>48,34; 49,35</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>45,39; 46,92</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>48,12; 49,24</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>48,34; 49,35</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>47,8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>48,0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>45,6</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>50,72</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>48,0</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>48,1</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>48,91</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>46,16</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>48,16</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>48,91</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>47,96</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>48,44</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>45,88</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>49,72</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>48,44</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>46,93; 48,63</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>47,16; 48,78</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>44,59; 46,49</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>47,74; 53,41</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>47,16; 48,78</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>47,52; 48,65</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>48,26; 49,57</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>45,29; 47,0</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>47,56; 48,74</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>48,26; 49,57</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>47,36; 48,4</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>47,86; 48,93</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>45,24; 46,51</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>47,88; 52,19</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>47,86; 48,93</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>46,35</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>48,2</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>46,11</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>46,56</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>48,2</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>46,17</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>48,34</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>46,2</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>46,32</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>48,34</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>46,26</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>48,27</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>46,16</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>46,45</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>48,27</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>45,43; 47,28</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>47,37; 48,98</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>44,99; 47,02</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>45,64; 47,47</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>47,37; 48,98</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>45,42; 46,94</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>47,3; 49,15</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>45,38; 47,04</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>45,61; 47,12</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>47,3; 49,15</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>45,6; 46,79</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>47,6; 48,77</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>45,52; 46,8</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>45,79; 46,98</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>47,6; 48,77</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>46,81</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>47,66</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>47,9</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>46,89</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>47,66</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>46,94</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>48,61</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>47,18</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>47,07</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>48,61</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>46,88</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>48,14</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>47,51</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>46,99</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>48,14</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>45,87; 47,69</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>46,79; 48,4</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>46,97; 48,72</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>45,92; 47,75</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>46,79; 48,4</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>46,15; 47,69</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>47,87; 49,36</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>46,21; 47,93</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>46,29; 47,83</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>47,87; 49,36</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>46,34; 47,47</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>47,59; 48,65</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>46,86; 48,09</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>46,45; 47,58</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>47,59; 48,65</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>44,74</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>48,31</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>47,27</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>44,85</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>48,31</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>43,89</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>47,94</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>46,95</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>44,0</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>47,94</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>44,22</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>48,09</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>47,07</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>44,33</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>48,09</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>43,44; 46,0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>47,58; 49,07</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>46,12; 48,14</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>43,53; 46,11</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>47,58; 49,07</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>42,76; 44,89</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>47,12; 48,67</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>45,99; 47,72</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>42,91; 44,97</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>47,12; 48,67</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>43,43; 45,03</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>47,56; 48,67</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>46,42; 47,63</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>43,59; 45,12</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>47,56; 48,67</t>
         </is>
       </c>
     </row>
@@ -1402,47 +1402,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>47,84</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>48,23</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>46,97</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>48,91</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>48,23</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>47,47</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>48,76</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>46,69</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>47,9</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>48,76</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>47,65</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>48,5</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>46,82</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>48,41</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>48,5</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>47,44; 48,24</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>47,88; 48,56</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>46,52; 47,43</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>47,96; 51,29</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>47,88; 48,56</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>47,09; 47,77</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>48,45; 49,06</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>46,27; 47,06</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>47,51; 48,73</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>48,45; 49,06</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>47,4; 47,9</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>48,29; 48,73</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>46,53; 47,11</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>47,87; 49,67</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>48,29; 48,73</t>
         </is>
       </c>
     </row>
